--- a/Scripts/2023/data/raw_data/Secchi_Averages_2023.xlsx
+++ b/Scripts/2023/data/raw_data/Secchi_Averages_2023.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mbindl\Documents\GitHub\ThresholdEvaluation\Scripts\2023\data\raw_data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{818CF0B8-A34F-488A-846E-258EC4F9E918}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4B42E182-7CC9-4930-B286-E46E4AB4AFB4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1520" yWindow="1520" windowWidth="25800" windowHeight="10010" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Averages" sheetId="1" r:id="rId1"/>
@@ -47,10 +47,10 @@
     <t>LTP_Annual_GAM</t>
   </si>
   <si>
-    <t>LTP_Annual_SD_GAM</t>
+    <t>LTP_Winter_GAM</t>
   </si>
   <si>
-    <t>LTP_Winter_GAM</t>
+    <t>LTP_Summer_GAM</t>
   </si>
 </sst>
 </file>
@@ -1748,9 +1748,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:D57"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A24" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D2" sqref="D2"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="2" max="2" width="14.81640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="18" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="16" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
